--- a/src/test/resources/files/empty_then_2_rows.xlsx
+++ b/src/test/resources/files/empty_then_2_rows.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243-admin/IdeaProjects/bi-api/src/test/resources/files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99E1BA-B4E6-6B40-AA3F-E65A83542317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="11880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Template" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" refMode="R1C1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,220 +26,220 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="68">
-  <si>
-    <t xml:space="preserve">Column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Trait name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the trait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powdery Mildew severity field, leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait abbreviations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other frequent abbreviations of the trait, if any. These abbreviations do not have to follow a convention. First will be treated as main abbreviation. Separate values with ;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>*Trait name</t>
+  </si>
+  <si>
+    <t>Human readable name of the trait</t>
+  </si>
+  <si>
+    <t>Powdery Mildew severity field, leaves</t>
+  </si>
+  <si>
+    <t>Trait abbreviations</t>
+  </si>
+  <si>
+    <t>Other frequent abbreviations of the trait, if any. These abbreviations do not have to follow a convention. First will be treated as main abbreviation. Separate values with ;</t>
   </si>
   <si>
     <t xml:space="preserve">PMSevLeaf; PM_LEAF_P4  </t>
   </si>
   <si>
-    <t xml:space="preserve">Trait synonyms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Full text synonyms, if any, of the trait. If several synonyms, separate with ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powdery Mildew; Powdery Mildew Severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Trait description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of trait</t>
+    <t>Trait synonyms</t>
+  </si>
+  <si>
+    <t>Full text synonyms, if any, of the trait. If several synonyms, separate with ;</t>
+  </si>
+  <si>
+    <t>Powdery Mildew; Powdery Mildew Severity</t>
+  </si>
+  <si>
+    <t>*Trait description</t>
+  </si>
+  <si>
+    <t>Description of trait</t>
   </si>
   <si>
     <t xml:space="preserve">Powdery mildew (PM) due to Erysiphe necator severity in field, leaves only </t>
   </si>
   <si>
-    <t xml:space="preserve">*Trait level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level trait is collected at (program definable, ex: {Plant, Plot, Field, …}). New level will be created if one specified doesn’t exist in system)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status of the trait {active, archived}. Will default to active if nothing specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait lists</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favorites lists the trait should be added to, if any. Separate values with ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nursery evaluation; Greenhouse evaluation; Trial evaluation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Method name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the method</t>
+    <t>*Trait level</t>
+  </si>
+  <si>
+    <t>Level trait is collected at (program definable, ex: {Plant, Plot, Field, …}). New level will be created if one specified doesn’t exist in system)</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Trait status</t>
+  </si>
+  <si>
+    <t>Status of the trait {active, archived}. Will default to active if nothing specified.</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Trait lists</t>
+  </si>
+  <si>
+    <t>Favorites lists the trait should be added to, if any. Separate values with ;</t>
+  </si>
+  <si>
+    <t>Nursery evaluation; Greenhouse evaluation; Trial evaluation</t>
+  </si>
+  <si>
+    <t>*Method name</t>
+  </si>
+  <si>
+    <t>Human readable name of the method</t>
   </si>
   <si>
     <t xml:space="preserve">Powdery Mildew severity, leaves - Estimation </t>
   </si>
   <si>
-    <t xml:space="preserve">*Method description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description of method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observed severity of Powdery Mildew on leaves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Method class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class of method. Possible values are {Observation, Measurement, Counting, Estimation, Computation, …}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estimation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For computational methods i.e., when the method consists in assessing the trait by computing measurements, write the generic formula used for the calculation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a^2 + b^2 = c^2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Scale name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human readable name of the scale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1-4 Parlier field response score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Scale class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class of scale. Possible values are {Code, Date, Duration, Nominal, Numerical, Ordinal, Text}. See BrAPI spec for more information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ordinal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale decimal places</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Used for Numerical class scales. Number of decimal places to be reported. Default to 2 if none specified.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale lower limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum value, if any, (used for data capture control) for Numerical and Date class scales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale upper limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum value, if any, (used for field data capture control) for Numerical and Date class scales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale categories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Required for Ordinal scale class. List of possible values with optional labels in format &lt;label of the category&gt; = &lt;meaning of the category&gt; separated by ;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1=No visible infection; 2=Very few, small colonies; 3=&lt; 50% coverage; 4=&gt;50% coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Required field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontology term name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait entity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trait attribute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Method class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scale class</t>
+    <t>*Method description</t>
+  </si>
+  <si>
+    <t>Description of method</t>
+  </si>
+  <si>
+    <t>Observed severity of Powdery Mildew on leaves</t>
+  </si>
+  <si>
+    <t>*Method class</t>
+  </si>
+  <si>
+    <t>Class of method. Possible values are {Observation, Measurement, Counting, Estimation, Computation, …}</t>
+  </si>
+  <si>
+    <t>Estimation</t>
+  </si>
+  <si>
+    <t>Method formula</t>
+  </si>
+  <si>
+    <t>For computational methods i.e., when the method consists in assessing the trait by computing measurements, write the generic formula used for the calculation</t>
+  </si>
+  <si>
+    <t>a^2 + b^2 = c^2</t>
+  </si>
+  <si>
+    <t>*Scale name</t>
+  </si>
+  <si>
+    <t>Human readable name of the scale</t>
+  </si>
+  <si>
+    <t>1-4 Parlier field response score</t>
+  </si>
+  <si>
+    <t>*Scale class</t>
+  </si>
+  <si>
+    <t>Class of scale. Possible values are {Code, Date, Duration, Nominal, Numerical, Ordinal, Text}. See BrAPI spec for more information.</t>
+  </si>
+  <si>
+    <t>Ordinal</t>
+  </si>
+  <si>
+    <t>Scale decimal places</t>
+  </si>
+  <si>
+    <t>Used for Numerical class scales. Number of decimal places to be reported. Default to 2 if none specified.</t>
+  </si>
+  <si>
+    <t>Scale lower limit</t>
+  </si>
+  <si>
+    <t>Minimum value, if any, (used for data capture control) for Numerical and Date class scales</t>
+  </si>
+  <si>
+    <t>Scale upper limit</t>
+  </si>
+  <si>
+    <t>Maximum value, if any, (used for field data capture control) for Numerical and Date class scales</t>
+  </si>
+  <si>
+    <t>Scale categories</t>
+  </si>
+  <si>
+    <t>Required for Ordinal scale class. List of possible values with optional labels in format &lt;label of the category&gt; = &lt;meaning of the category&gt; separated by ;</t>
+  </si>
+  <si>
+    <t>1=No visible infection; 2=Very few, small colonies; 3=&lt; 50% coverage; 4=&gt;50% coverage</t>
+  </si>
+  <si>
+    <t>* Required field</t>
+  </si>
+  <si>
+    <t>Ontology term name</t>
+  </si>
+  <si>
+    <t>Trait description</t>
+  </si>
+  <si>
+    <t>Trait entity</t>
+  </si>
+  <si>
+    <t>Trait attribute</t>
+  </si>
+  <si>
+    <t>Method name</t>
+  </si>
+  <si>
+    <t>Method description</t>
+  </si>
+  <si>
+    <t>Method class</t>
+  </si>
+  <si>
+    <t>Scale name</t>
+  </si>
+  <si>
+    <t>Scale class</t>
   </si>
   <si>
     <t xml:space="preserve">PMSevLeaf; PM_LEAF_P4 </t>
   </si>
   <si>
-    <t xml:space="preserve">leaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powder mildew severity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powdery Mildew severity field, stalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PMSevStalk; PM_LEAF_P3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stalk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">powdery mildew severity</t>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>powder mildew severity</t>
+  </si>
+  <si>
+    <t>Powdery Mildew severity field, stalk</t>
+  </si>
+  <si>
+    <t>PMSevStalk; PM_LEAF_P3</t>
+  </si>
+  <si>
+    <t>stalk</t>
+  </si>
+  <si>
+    <t>powdery mildew severity</t>
+  </si>
+  <si>
+    <t>Full Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -242,26 +247,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -273,7 +269,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -281,79 +277,345 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="136.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="74"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="136.5" customWidth="1"/>
+    <col min="3" max="3" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -364,203 +626,202 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3" t="n">
+      <c r="C15" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3" t="n">
+      <c r="C16" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="3">
         <v>9999</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -568,33 +829,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:R4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="16.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="15.66"/>
+    <col min="1" max="1" width="41.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="19.83203125" customWidth="1"/>
+    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -649,8 +907,11 @@
       <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="S1" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -693,20 +954,20 @@
       <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2" t="n">
+      <c r="O3" s="2">
         <v>2</v>
       </c>
-      <c r="P3" s="2" t="n">
+      <c r="P3" s="2">
         <v>2</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="Q3" s="2">
         <v>9999</v>
       </c>
       <c r="R3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>64</v>
       </c>
@@ -749,13 +1010,13 @@
       <c r="N4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2" t="n">
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="P4" s="2" t="n">
+      <c r="P4" s="2">
         <v>2</v>
       </c>
-      <c r="Q4" s="2" t="n">
+      <c r="Q4" s="2">
         <v>9999</v>
       </c>
       <c r="R4" s="2" t="s">
@@ -763,10 +1024,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/src/test/resources/files/empty_then_2_rows.xlsx
+++ b/src/test/resources/files/empty_then_2_rows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243-admin/IdeaProjects/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F99E1BA-B4E6-6B40-AA3F-E65A83542317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2032868-271B-964A-A8C1-14E9830E6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="11880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>Column</t>
   </si>
@@ -220,9 +220,6 @@
     <t>powder mildew severity</t>
   </si>
   <si>
-    <t>Powdery Mildew severity field, stalk</t>
-  </si>
-  <si>
     <t>PMSevStalk; PM_LEAF_P3</t>
   </si>
   <si>
@@ -233,6 +230,18 @@
   </si>
   <si>
     <t>Full Name</t>
+  </si>
+  <si>
+    <t>PM_Leaf</t>
+  </si>
+  <si>
+    <t>PM_Stalk</t>
+  </si>
+  <si>
+    <t>Powdery Mildew severity, leaf</t>
+  </si>
+  <si>
+    <t>Powdery Mildew severity, stalk</t>
   </si>
 </sst>
 </file>
@@ -832,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -908,12 +917,12 @@
         <v>48</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>61</v>
@@ -940,7 +949,7 @@
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>32</v>
@@ -969,10 +978,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -981,10 +990,10 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>20</v>
@@ -996,7 +1005,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>32</v>

--- a/src/test/resources/files/empty_then_2_rows.xlsx
+++ b/src/test/resources/files/empty_then_2_rows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243-admin/IdeaProjects/bi-api/src/test/resources/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hms243/IdeaProjects/bi-api/src/test/resources/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2032868-271B-964A-A8C1-14E9830E6796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD7C402-9E1F-564E-9DE4-E6D8F6A2A9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27820" windowHeight="11880" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Template" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" refMode="R1C1"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
   <si>
     <t>Column</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Powdery Mildew severity, stalk</t>
+  </si>
+  <si>
+    <t>Term Type</t>
   </si>
 </sst>
 </file>
@@ -289,10 +292,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -636,10 +638,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
@@ -647,7 +649,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
@@ -658,10 +660,10 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -669,10 +671,10 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
@@ -680,10 +682,10 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
@@ -691,7 +693,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7" t="s">
@@ -702,7 +704,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="B8" t="s">
@@ -713,7 +715,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -724,7 +726,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>27</v>
       </c>
       <c r="B10" t="s">
@@ -735,10 +737,10 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11" t="s">
@@ -746,18 +748,18 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>36</v>
       </c>
       <c r="B13" t="s">
@@ -768,7 +770,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>39</v>
       </c>
       <c r="B14" t="s">
@@ -779,40 +781,40 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>44</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>46</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>9999</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>48</v>
       </c>
       <c r="B18" t="s">
@@ -839,10 +841,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -861,7 +863,7 @@
     <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -916,119 +918,122 @@
       <c r="R1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+      <c r="T1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" t="s">
         <v>70</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3">
         <v>2</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3">
         <v>2</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3">
         <v>9999</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="R3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4">
         <v>2</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4">
         <v>9999</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="R4" t="s">
         <v>50</v>
       </c>
     </row>
